--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_36.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3621703.989585932</v>
+        <v>3618686.399184997</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>354.2904125984923</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>311.4936872159398</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>10.70611463921598</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>62.88528692724368</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>320.1888596171597</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>53.88251255924578</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.6461152259198</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5665074910852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>54.32902562741769</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>58.90587111900098</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>123.3397726353228</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>105.7970792681977</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
         <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>170.9606397709136</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>32.50395556408391</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>207.8096072936662</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,16 +2239,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>23.85319828068306</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,13 +2296,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>45.44211318549491</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>6.063010891605836</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9547379802174</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>33.35146980185877</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>33.35146980185922</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3080,16 +3080,16 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>143.5781564229879</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>60.54139430664206</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701364</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>161.8175117958956</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3478,19 +3478,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>143.3158222056515</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,16 +3503,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3560,13 +3560,13 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.64843562452447</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,16 +3749,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274148</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174136</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,16 +3901,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>51.49189946436077</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1.900916560956582</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,19 +3946,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417107</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G44" t="n">
         <v>411.9645167896915</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>76.31783716350067</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4189,10 +4189,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>247.3377383046804</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2310.5492509541</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C2" t="n">
-        <v>1941.586734013689</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>1583.321035406938</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>1197.532782808694</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>786.5468780190865</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>368.5830699172734</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4367,13 +4367,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018222</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y2" t="n">
-        <v>2697.149091018222</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="3">
@@ -4398,40 +4398,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>635.1915732143555</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>635.1915732143555</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>485.0749338020197</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>337.1618402196266</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>717.3147269951052</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>717.3147269951052</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>717.3147269951052</v>
       </c>
       <c r="T4" t="n">
-        <v>635.1915732143555</v>
+        <v>490.0065396637069</v>
       </c>
       <c r="U4" t="n">
-        <v>635.1915732143555</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="V4" t="n">
-        <v>635.1915732143555</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W4" t="n">
-        <v>635.1915732143555</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X4" t="n">
-        <v>635.1915732143555</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y4" t="n">
-        <v>635.1915732143555</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1610.120910258947</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.158393318536</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224079</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.722310655348</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2466.544822969518</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.910155941581</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>1994.148370579673</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1994.148370579673</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1641.379715309559</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1641.379715309559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1251.240383333747</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.2080756496231</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
         <v>190.2718927217162</v>
@@ -4720,55 +4720,55 @@
         <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406182</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="X7" t="n">
-        <v>579.9823256406182</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.2080756496231</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>760.2723052017247</v>
+        <v>1646.746562480846</v>
       </c>
       <c r="C8" t="n">
-        <v>760.2723052017247</v>
+        <v>1277.784045540434</v>
       </c>
       <c r="D8" t="n">
-        <v>402.0066065949742</v>
+        <v>919.5183469336837</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949742</v>
+        <v>533.7300943354394</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>122.7441895458318</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>108.8207854844227</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>108.8207854844227</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2461.47072341421</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2207.708938052301</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V8" t="n">
-        <v>1876.64605070873</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W8" t="n">
-        <v>1523.877395438616</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="X8" t="n">
-        <v>1150.411637177536</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="Y8" t="n">
-        <v>760.2723052017247</v>
+        <v>2033.346402544968</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="T10" t="n">
-        <v>211.6913543878343</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="U10" t="n">
-        <v>211.6913543878343</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="V10" t="n">
-        <v>211.6913543878343</v>
+        <v>444.0275768541698</v>
       </c>
       <c r="W10" t="n">
-        <v>211.6913543878343</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6913543878343</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>337.1618402196266</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5066,25 +5066,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,19 +5118,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.321444831246</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2413.343925613455</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>893.5623804327207</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5464,22 +5464,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>1075.21084526296</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5537,28 +5537,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5580,13 +5580,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
@@ -5595,19 +5595,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>576.1735122404926</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>576.1735122404926</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>576.1735122404926</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>576.1735122404926</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,49 +5750,49 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110083</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>672.4909068465487</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1474.822130880445</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1251.036715669951</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>961.9080768835092</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>961.9080768835092</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>672.4909068465487</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>672.4909068465487</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>672.4909068465487</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,7 +6005,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>2649.889045452863</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>2946.774526574668</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>3254.09465985463</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>3583.957287518663</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>4253.421048821322</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3634.215830270446</v>
+        <v>573.2461374003673</v>
       </c>
       <c r="C25" t="n">
-        <v>3465.279647342539</v>
+        <v>573.2461374003673</v>
       </c>
       <c r="D25" t="n">
-        <v>3465.279647342539</v>
+        <v>573.2461374003673</v>
       </c>
       <c r="E25" t="n">
-        <v>3465.279647342539</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F25" t="n">
-        <v>3465.279647342539</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>3465.279647342539</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281177</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>4326.074044281177</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V25" t="n">
-        <v>4326.074044281177</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W25" t="n">
-        <v>4036.656874244216</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X25" t="n">
-        <v>4036.656874244216</v>
+        <v>754.894602230607</v>
       </c>
       <c r="Y25" t="n">
-        <v>3815.864295100686</v>
+        <v>754.894602230607</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,40 +6215,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M27" t="n">
-        <v>1595.645765494011</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1925.508393158044</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>2205.048458376741</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2410.070939158951</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.2811958984813</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.850878658693</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.850878658693</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.850878658693</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1098.722239872251</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1098.722239872251</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>1098.722239872251</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1098.722239872251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>877.929660728721</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6440,34 +6440,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6540,22 +6540,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>130.9054447954967</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="C31" t="n">
-        <v>130.9054447954967</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="D31" t="n">
-        <v>130.9054447954967</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="E31" t="n">
-        <v>130.9054447954967</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028587</v>
@@ -6619,7 +6619,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
@@ -6628,7 +6628,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6637,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U31" t="n">
-        <v>675.0071030383442</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324574</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W31" t="n">
-        <v>130.9054447954967</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X31" t="n">
-        <v>130.9054447954967</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="Y31" t="n">
-        <v>130.9054447954967</v>
+        <v>130.9054447954972</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6722,16 +6722,16 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690735</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409608</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748357</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742901</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769786</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373971</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805659</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="J33" t="n">
-        <v>233.7852434110089</v>
+        <v>2500.819361250805</v>
       </c>
       <c r="K33" t="n">
-        <v>644.6755122555215</v>
+        <v>2911.709630095318</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>3158.474758001782</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>3465.794891281743</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>3795.657518945776</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>4075.197584164473</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.74515569858</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098069</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021847</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641234</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409491</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475757</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710803</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3796.266898524763</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C34" t="n">
-        <v>3627.330715596856</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D34" t="n">
-        <v>3627.330715596856</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E34" t="n">
-        <v>3627.330715596856</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F34" t="n">
-        <v>3627.330715596856</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916677</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4715.826132182992</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T34" t="n">
-        <v>4715.826132182992</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U34" t="n">
-        <v>4426.69749339655</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V34" t="n">
-        <v>4426.69749339655</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W34" t="n">
-        <v>4426.69749339655</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="X34" t="n">
-        <v>4198.707942498533</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y34" t="n">
-        <v>3977.915363355003</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6932,55 +6932,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>485.404702608941</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L36" t="n">
-        <v>732.169830515405</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M36" t="n">
-        <v>1039.489963795367</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7111,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>709.4512536188996</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>709.4512536188996</v>
       </c>
       <c r="X37" t="n">
-        <v>241.9805482336712</v>
+        <v>481.4617027208823</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>260.6691235773521</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,7 +7169,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7181,10 +7181,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643324</v>
@@ -7196,7 +7196,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231265</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>324.384017443268</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7348,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0324822735078</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155896</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805478</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382247</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823794</v>
@@ -7418,10 +7418,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643324</v>
@@ -7433,7 +7433,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231265</v>
@@ -7448,13 +7448,13 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>316.9584588710876</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>563.7235867775516</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
         <v>2331.418122136705</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>468.281933461499</v>
+        <v>268.0733921265328</v>
       </c>
       <c r="C43" t="n">
-        <v>299.3457505335921</v>
+        <v>99.13720919862587</v>
       </c>
       <c r="D43" t="n">
-        <v>149.2291111212564</v>
+        <v>99.13720919862587</v>
       </c>
       <c r="E43" t="n">
-        <v>149.2291111212564</v>
+        <v>99.13720919862587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>99.13720919862587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7585,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U43" t="n">
-        <v>1098.712528333286</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V43" t="n">
-        <v>1098.712528333286</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W43" t="n">
-        <v>1098.712528333286</v>
+        <v>898.50398699832</v>
       </c>
       <c r="X43" t="n">
-        <v>870.7229774352688</v>
+        <v>670.5144361003026</v>
       </c>
       <c r="Y43" t="n">
-        <v>649.9303982917387</v>
+        <v>449.7218569567725</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028589</v>
@@ -7655,13 +7655,13 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899128</v>
@@ -7676,22 +7676,22 @@
         <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>825.3747459653034</v>
+        <v>493.3586382081049</v>
       </c>
       <c r="C46" t="n">
-        <v>825.3747459653034</v>
+        <v>324.4224552801981</v>
       </c>
       <c r="D46" t="n">
-        <v>675.2581065529677</v>
+        <v>174.3058158678623</v>
       </c>
       <c r="E46" t="n">
-        <v>527.3450129705745</v>
+        <v>174.3058158678623</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705745</v>
+        <v>174.3058158678623</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>174.3058158678623</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028589</v>
@@ -7807,13 +7807,13 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7822,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U46" t="n">
-        <v>1075.21084526296</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V46" t="n">
-        <v>825.3747459653034</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W46" t="n">
-        <v>825.3747459653034</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="X46" t="n">
-        <v>825.3747459653034</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="Y46" t="n">
-        <v>825.3747459653034</v>
+        <v>675.0071030383447</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360584</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747115</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,16 +8772,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>285.1031356539335</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>124.3400780863228</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>96.03744927814623</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>50.62661940943553</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>127.6461250100647</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>96.03744927814685</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776735</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>73.53204524669994</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>96.03744927814625</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729829</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,19 +10899,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10920,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,19 +11139,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>29.47535963978211</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928342</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>115.5623585656774</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>134.7428655345439</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23941,19 +23941,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>44.32803603016183</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,16 +24127,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>174.0676117029202</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>100.9918494610743</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.8508174759303</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.009614423575342812</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24847,10 +24847,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>112.0695782210725</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>133.1420986615184</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>54.34265356061533</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>225.9816040299489</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>18.0144683860417</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,19 +25366,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>75.26883114644332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388531</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25597,13 +25597,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,16 +25789,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>93.92914855857047</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>164.592651902421</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25834,19 +25834,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>72.59599120403546</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,10 +26077,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>4.799905019147559</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>679007.2774849685</v>
+        <v>679007.2774849684</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>679007.2774849685</v>
+        <v>679007.2774849684</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>679007.2774849685</v>
+        <v>679007.2774849684</v>
       </c>
     </row>
     <row r="10">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278755</v>
       </c>
       <c r="F2" t="n">
         <v>703852.3075278761</v>
@@ -26329,31 +26329,31 @@
         <v>703852.3075278761</v>
       </c>
       <c r="H2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="I2" t="n">
         <v>703852.307527876</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>703852.3075278762</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>703852.3075278765</v>
+      </c>
+      <c r="L2" t="n">
         <v>703852.3075278761</v>
-      </c>
-      <c r="K2" t="n">
-        <v>703852.3075278761</v>
-      </c>
-      <c r="L2" t="n">
-        <v>703852.3075278759</v>
       </c>
       <c r="M2" t="n">
         <v>703852.3075278761</v>
       </c>
       <c r="N2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="O2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="P2" t="n">
         <v>703852.307527876</v>
-      </c>
-      <c r="O2" t="n">
-        <v>703852.3075278761</v>
-      </c>
-      <c r="P2" t="n">
-        <v>703852.3075278759</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143902</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143903</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143903</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430953</v>
+        <v>15045.66962143906</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26488,25 +26488,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871667</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-90249.10814185455</v>
+        <v>-90664.32265132177</v>
       </c>
       <c r="C6" t="n">
-        <v>499718.7710726897</v>
+        <v>499303.5565632231</v>
       </c>
       <c r="D6" t="n">
-        <v>499718.77107269</v>
+        <v>499303.5565632231</v>
       </c>
       <c r="E6" t="n">
-        <v>71993.44444795373</v>
+        <v>71659.27548082371</v>
       </c>
       <c r="F6" t="n">
-        <v>597153.48092485</v>
+        <v>596819.3119577204</v>
       </c>
       <c r="G6" t="n">
-        <v>597153.48092485</v>
+        <v>596819.3119577204</v>
       </c>
       <c r="H6" t="n">
-        <v>597153.4809248499</v>
+        <v>596819.3119577204</v>
       </c>
       <c r="I6" t="n">
-        <v>597153.4809248501</v>
+        <v>596819.3119577204</v>
       </c>
       <c r="J6" t="n">
-        <v>420730.261732257</v>
+        <v>420396.0927651274</v>
       </c>
       <c r="K6" t="n">
-        <v>597153.48092485</v>
+        <v>596819.3119577208</v>
       </c>
       <c r="L6" t="n">
-        <v>597153.4809248497</v>
+        <v>596819.3119577204</v>
       </c>
       <c r="M6" t="n">
-        <v>462352.4656910129</v>
+        <v>462018.2967238833</v>
       </c>
       <c r="N6" t="n">
-        <v>597153.4809248499</v>
+        <v>596819.31195772</v>
       </c>
       <c r="O6" t="n">
-        <v>597153.48092485</v>
+        <v>596819.3119577201</v>
       </c>
       <c r="P6" t="n">
-        <v>597153.4809248496</v>
+        <v>596819.3119577202</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26817,16 +26817,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253574</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>10.98247917251524</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>12.42908554841733</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>18.41663531569831</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>162.1498185308406</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62.54498204632091</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0.5958900155658782</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>8.635759016057932</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01814586100960014</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>97.6022906174435</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>157.5424492386568</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>101.6953328227615</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>180.7259190683933</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>7.394985773160066e-13</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31279,46 +31279,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31455,28 +31455,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,10 +35094,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>534.3608406099578</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>212.353110871397</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35978,7 +35978,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330529</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>299.8843243654599</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>215.6591577951388</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37008,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>137.9476282330535</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,7 +37163,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091983</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37245,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>224.1074838346392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341706</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37482,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37719,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>180.0507982277213</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37956,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38020,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221134</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38193,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3694216.0688498</v>
+        <v>3687199.053958089</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>325.8360699558774</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>178.675295750047</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,16 +715,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017903</v>
+        <v>229.8992754565371</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>78.29200324836498</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>209.2822736657438</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>190.271393580297</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>62.56386682245563</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>133.506578239346</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>23.62225636743066</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481162</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250816</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229327</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>59.72683757586862</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853696</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>185.0635387655697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051995</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.7370890140992</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>61.83398511660721</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784694</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>183.4653217847136</v>
       </c>
       <c r="X16" t="n">
-        <v>64.63690770271518</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>186.3476781574648</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>206.806426921486</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>182.9769182411772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>191.243689355533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634823</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>64.34786245132079</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>55.37706382140738</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>55.21533678566921</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>108.2541786024566</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U37" t="n">
-        <v>109.5228313448035</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>161.817511795895</v>
       </c>
       <c r="X40" t="n">
-        <v>133.4400639867998</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051985</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>112.4553866336711</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>237.3965091869248</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>56.57845968187848</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1268.68094731003</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1971.274048960885</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1597.808290699805</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1597.808290699805</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1394.624369323446</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>961.9755262757901</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>961.9755262757901</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>550.9896214861826</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>133.0258133843695</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>133.0258133843695</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2154.689967648648</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1781.224209387568</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1781.224209387568</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>664.9331591332467</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>664.9331591332467</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>664.9331591332467</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>664.9331591332467</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1229.94137123615</v>
+        <v>1315.737983561873</v>
       </c>
       <c r="C8" t="n">
-        <v>860.9788542957383</v>
+        <v>946.7754666214612</v>
       </c>
       <c r="D8" t="n">
-        <v>502.7131556889878</v>
+        <v>588.5097680147107</v>
       </c>
       <c r="E8" t="n">
-        <v>502.7131556889878</v>
+        <v>202.7215154164665</v>
       </c>
       <c r="F8" t="n">
-        <v>495.7676549397843</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>77.80384683797121</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>77.80384683797121</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.30824683495</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473042</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.546461473042</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.546461473042</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1620.080703211962</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1229.94137123615</v>
+        <v>1702.337823625995</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.063382757265</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2068.619613065019</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>2068.619613065019</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D10" t="n">
-        <v>2068.619613065019</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E10" t="n">
-        <v>2068.619613065019</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F10" t="n">
-        <v>2068.619613065019</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G10" t="n">
-        <v>2068.619613065019</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="H10" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>2022.963088632154</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>2079.265281698422</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>2351.737007977611</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>2498.62414566204</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>2618.28189617128</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>2697.149091018224</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>2697.149091018224</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>2697.149091018224</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>2482.860667836387</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>2255.552480504989</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>2255.552480504989</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>2255.552480504989</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>2255.552480504989</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>2255.552480504989</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>2068.619613065019</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5032,19 +5032,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,19 +5053,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5117,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701563</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507007</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.67826817104</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2320.788110039405</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.3055067228584</v>
+        <v>644.700260475621</v>
       </c>
       <c r="C13" t="n">
-        <v>413.3055067228584</v>
+        <v>475.7640775477141</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>475.7640775477141</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>327.850983965321</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>327.850983965321</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>159.6756622851416</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>159.6756622851416</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609669</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>986.0022165609669</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W13" t="n">
-        <v>696.5850465240062</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X13" t="n">
-        <v>468.5954956259889</v>
+        <v>1047.141304449391</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.5954956259889</v>
+        <v>826.3487253058607</v>
       </c>
     </row>
     <row r="14">
@@ -5272,52 +5272,52 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701563</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766205</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687013</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W16" t="n">
-        <v>1009.867621687013</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>944.5778159266949</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>723.7852367831648</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5503,64 +5503,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>400.2445180358627</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L18" t="n">
-        <v>1014.141587792751</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M18" t="n">
-        <v>1321.461721072713</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N18" t="n">
-        <v>1651.324348736746</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>2320.788110039405</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3888.981946387244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>3888.981946387244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>3738.865306974908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>3738.865306974908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>3738.865306974908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4749.779469576119</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T19" t="n">
-        <v>4525.994054365625</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U19" t="n">
-        <v>4337.764076428792</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>4337.764076428792</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>4337.764076428792</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>4109.774525530775</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>3888.981946387244</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5749,55 +5749,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2525.058920465859</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>2771.824048372323</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>3079.144181652285</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>3883.555759916435</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>4253.421048821323</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.9727323706986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>653.9727323706986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>653.9727323706986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>1020.446367141521</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>1020.446367141521</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>1020.446367141521</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.6211972009384</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514082</v>
@@ -6001,16 +6001,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.474758001781</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281742</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>3973.880983602626</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4253.421048821323</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>909.3712637033469</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>619.9540936663864</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>619.9540936663864</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>426.7786498729187</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,40 +6238,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F27" t="n">
         <v>358.2718071316295</v>
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>485.5200852635876</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6341,7 +6341,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>505.7582697485844</v>
+        <v>799.8610847926847</v>
       </c>
       <c r="C28" t="n">
-        <v>505.7582697485844</v>
+        <v>630.9249018647778</v>
       </c>
       <c r="D28" t="n">
-        <v>355.6416303362487</v>
+        <v>480.808262452442</v>
       </c>
       <c r="E28" t="n">
-        <v>355.6416303362487</v>
+        <v>480.808262452442</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>480.808262452442</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>312.6329407722626</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>162.2149323202059</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>964.135741824786</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X28" t="n">
-        <v>908.1993137223543</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y28" t="n">
-        <v>687.4067345788242</v>
+        <v>981.5095496229244</v>
       </c>
     </row>
     <row r="29">
@@ -6442,10 +6442,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,19 +6457,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6481,19 +6481,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6505,7 +6505,7 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>485.5200852635878</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>1099.417155020476</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6660,13 +6660,13 @@
         <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>475.6246508103599</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6697,37 +6697,37 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4034.708103745581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>3925.360448591584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>3775.243809179248</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.14914771935</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4437.14914771935</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>4437.14914771935</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>4437.14914771935</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>4437.14914771935</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>4216.35656857582</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6961,28 +6961,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>2419.212510152276</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2830.102778996788</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3443.999848753677</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3751.319982033639</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>4081.182609697671</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>822.6075462588844</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1077.292034464771</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>822.6075462588844</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>822.6075462588844</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>822.6075462588844</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>822.6075462588844</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7153,28 +7153,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7192,13 +7192,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3869.021087329178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>3869.021087329178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>3869.021087329178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>4660.934562929845</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>4660.934562929845</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>4660.934562929845</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V40" t="n">
-        <v>4406.250074723958</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W40" t="n">
-        <v>4406.250074723958</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>4271.462131302948</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>4050.669552159418</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7402,28 +7402,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2103.010087623274</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4148.020508932908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>3979.084326005001</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3865.493026375031</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3717.579932792637</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4437.14914771935</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>4148.020508932908</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V43" t="n">
-        <v>4148.020508932908</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>4148.020508932908</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>4148.020508932908</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>4148.020508932908</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822458</v>
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7727,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1336.046207783209</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>731.6365520183392</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1241.84630119883</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1241.84630119883</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1241.84630119883</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>952.4291311618693</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>952.4291311618693</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>731.6365520183392</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516213</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>73.53204524670085</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>242.9997743936041</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599039</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>306.1147370139951</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>113.6026921294539</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>91.23759968302073</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720735</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>180.0237016735864</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298479</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>199.7396287231155</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>43.6598726146251</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>43.65987261462354</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>189.0022427662469</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>230.7151863772038</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>165.9802687929768</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>125.0948911678381</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>48.58526034766479</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="X16" t="n">
-        <v>161.072747686322</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>14.74113413690324</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>99.88967424111252</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>35.60773511091762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>27.34096399656178</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>46.0713830129512</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>170.3325915676298</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3076615509218</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>58.99264249617123</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U37" t="n">
-        <v>176.7145210537739</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>124.705486540696</v>
       </c>
       <c r="X40" t="n">
-        <v>92.26959140223735</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>36.1600863845413</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>14.74113413690318</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>164.9691013765108</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>679007.2774849688</v>
+        <v>679007.2774849685</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>679007.2774849684</v>
+        <v>679007.2774849685</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>679007.2774849684</v>
+        <v>679007.2774849685</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>738937.5928778548</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.307527876</v>
       </c>
       <c r="F2" t="n">
+        <v>703852.3075278759</v>
+      </c>
+      <c r="G2" t="n">
         <v>703852.3075278758</v>
-      </c>
-      <c r="G2" t="n">
-        <v>703852.3075278761</v>
       </c>
       <c r="H2" t="n">
         <v>703852.3075278759</v>
       </c>
       <c r="I2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="J2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="L2" t="n">
+        <v>703852.3075278759</v>
+      </c>
+      <c r="M2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="N2" t="n">
         <v>703852.3075278761</v>
       </c>
-      <c r="K2" t="n">
-        <v>703852.3075278759</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>703852.307527876</v>
       </c>
-      <c r="M2" t="n">
-        <v>703852.3075278759</v>
-      </c>
-      <c r="N2" t="n">
-        <v>703852.3075278758</v>
-      </c>
-      <c r="O2" t="n">
-        <v>703852.3075278761</v>
-      </c>
       <c r="P2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.307527876</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.434074986013002e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>525160.036476896</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26423,28 +26423,28 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512225</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143916</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
+        <v>15045.66962143902</v>
+      </c>
+      <c r="K4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15045.66962143914</v>
       </c>
       <c r="L4" t="n">
         <v>15045.6696214391</v>
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871665</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="J5" t="n">
+      <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="K5" t="n">
+      <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-90664.3226513218</v>
       </c>
       <c r="C6" t="n">
+        <v>499303.5565632225</v>
+      </c>
+      <c r="D6" t="n">
         <v>499303.5565632228</v>
       </c>
-      <c r="D6" t="n">
-        <v>499303.5565632226</v>
-      </c>
       <c r="E6" t="n">
-        <v>71659.27548082387</v>
+        <v>70684.68422110261</v>
       </c>
       <c r="F6" t="n">
-        <v>596819.3119577201</v>
+        <v>595844.7206979984</v>
       </c>
       <c r="G6" t="n">
-        <v>596819.3119577207</v>
+        <v>595844.7206979984</v>
       </c>
       <c r="H6" t="n">
-        <v>596819.3119577202</v>
+        <v>595844.7206979984</v>
       </c>
       <c r="I6" t="n">
-        <v>596819.3119577202</v>
+        <v>595844.7206979984</v>
       </c>
       <c r="J6" t="n">
-        <v>420396.0927651274</v>
+        <v>419421.5015054055</v>
       </c>
       <c r="K6" t="n">
-        <v>596819.3119577201</v>
+        <v>595844.7206979987</v>
       </c>
       <c r="L6" t="n">
-        <v>596819.3119577203</v>
+        <v>595844.7206979985</v>
       </c>
       <c r="M6" t="n">
-        <v>462018.296723883</v>
+        <v>461043.7054641616</v>
       </c>
       <c r="N6" t="n">
-        <v>596819.3119577201</v>
+        <v>595844.7206979988</v>
       </c>
       <c r="O6" t="n">
-        <v>596819.3119577204</v>
+        <v>595844.7206979987</v>
       </c>
       <c r="P6" t="n">
-        <v>596819.3119577201</v>
+        <v>595844.7206979987</v>
       </c>
     </row>
   </sheetData>
@@ -26740,28 +26740,28 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.743664217087</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26776,10 +26776,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="P3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56.89777170760317</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>203.2550743222148</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,16 +27590,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401874</v>
+        <v>56.38259878544065</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>73.63931299649627</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>139.9586950516692</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>96.01048066168073</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>156.0207865296392</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>273.3694675023654</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>128.3090598774305</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>96.44405126592653</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.52111458652507</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396483</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770697</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279154</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>224.1074838346401</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>525.3634766347124</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>588.4784392551034</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>264.1781307173932</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>373.6013019241289</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415077</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>513.2182750715994</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970350042</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>350.3150673110547</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
@@ -36928,10 +36928,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>250.7532875461497</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37165,10 +37165,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>85.57005156953019</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37636,16 +37636,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>471.365945007355</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37867,19 +37867,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>437.8086013087286</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>499.1748421909896</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3687199.053958089</v>
+        <v>3692138.316807122</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.675295750047</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>67.75922364921323</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>229.8992754565371</v>
+        <v>17.75373650651819</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>333.2367327452151</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.29200324836498</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>63.57678144609353</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>62.56386682245563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>133.506578239346</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>6.283679164005257</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,16 +1305,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>59.72683757586862</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.54110646053145</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274131</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385022</v>
+        <v>208.4827883385021</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>142.1196107411498</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>61.83398511660721</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>183.4653217847136</v>
+        <v>271.7818641996879</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>183.1796758467</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2143,10 +2143,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>26.97444673954864</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>206.806426921486</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634823</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>64.34786245132079</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>161.8175117958952</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>122.3137095599312</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>139.1537278750035</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3666,19 +3666,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>46.67023850980071</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>161.817511795895</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051985</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>137.4124440129375</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>237.3965091869248</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,7 +4194,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="C2" t="n">
-        <v>940.7524019189439</v>
+        <v>995.7810913884502</v>
       </c>
       <c r="D2" t="n">
-        <v>582.4867033121934</v>
+        <v>995.7810913884502</v>
       </c>
       <c r="E2" t="n">
-        <v>402.0066065949742</v>
+        <v>609.992838790206</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>603.0473380410025</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="3">
@@ -4412,16 +4412,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4515,10 +4515,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U4" t="n">
         <v>268.5993065148977</v>
@@ -4555,25 +4555,25 @@
         <v>961.9755262757901</v>
       </c>
       <c r="F5" t="n">
-        <v>550.9896214861826</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>133.0258133843695</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>133.0258133843695</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4667,28 +4667,28 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>664.9331591332467</v>
+        <v>663.910013048764</v>
       </c>
       <c r="C7" t="n">
-        <v>664.9331591332467</v>
+        <v>663.910013048764</v>
       </c>
       <c r="D7" t="n">
-        <v>664.9331591332467</v>
+        <v>663.910013048764</v>
       </c>
       <c r="E7" t="n">
-        <v>517.0200655508536</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F7" t="n">
         <v>517.0200655508536</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>663.910013048764</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>663.910013048764</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>663.910013048764</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>663.910013048764</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>663.910013048764</v>
       </c>
       <c r="Y7" t="n">
-        <v>664.9331591332467</v>
+        <v>663.910013048764</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1315.737983561873</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>946.7754666214612</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>588.5097680147107</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>202.7215154164665</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224083</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.477155601806</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1702.337823625995</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785276</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661918</v>
+        <v>548.5954256477208</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837987</v>
+        <v>400.6823320653277</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858883</v>
+        <v>253.7923845674174</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2731207858883</v>
+        <v>84.79258430574978</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>84.79258430574978</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>84.79258430574978</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822468</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5065,28 +5065,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>485.4047026089419</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>732.1698305154059</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1039.489963795367</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>644.700260475621</v>
+        <v>538.8019868198124</v>
       </c>
       <c r="C13" t="n">
-        <v>475.7640775477141</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>475.7640775477141</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>327.850983965321</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>327.850983965321</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>159.6756622851416</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>159.6756622851416</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>1275.130855347408</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W13" t="n">
-        <v>1275.130855347408</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X13" t="n">
-        <v>1047.141304449391</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="Y13" t="n">
-        <v>826.3487253058607</v>
+        <v>720.4504516500522</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
@@ -5278,25 +5278,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,10 +5305,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.3578574653</v>
@@ -5320,10 +5320,10 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636247</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,16 +5463,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609662</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550793</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W16" t="n">
         <v>545.9992215018333</v>
@@ -5497,34 +5497,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,10 +5533,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5597,19 +5597,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>485.5200852635878</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5700,10 +5700,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1313.886294955175</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1090.100879744681</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
         <v>1090.100879744681</v>
@@ -5752,7 +5752,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5764,31 +5764,31 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5943,19 +5943,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>306.1124721890595</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
@@ -5989,52 +5989,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6174,22 +6174,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6223,55 +6223,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
         <v>358.2718071316295</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6341,7 +6341,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>799.8610847926847</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>630.9249018647778</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>480.808262452442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>480.808262452442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>480.808262452442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>312.6329407722626</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2149323202059</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6442,19 +6442,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
@@ -6463,28 +6463,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6545,19 +6545,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>1163.495507227045</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M30" t="n">
-        <v>1470.815640507006</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1800.678268171039</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>2080.218333389736</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6648,19 +6648,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
         <v>97.21709146028587</v>
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,37 +6916,37 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6958,25 +6958,25 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>515.5693341162774</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>367.6562405338843</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>220.766293035974</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,19 +7165,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7198,7 +7198,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>294.7767549727473</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>294.7767549727473</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>964.1357418247858</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>709.4512536188989</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7417,13 +7417,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1249.040718621811</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.21084526296</v>
+        <v>959.9120798353694</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>705.2275916294825</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822458</v>
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7833,13 +7833,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
         <v>614.6238123952637</v>
@@ -8060,7 +8060,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360584</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747115</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>73.53204524670085</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776759</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298479</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,10 +10193,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>43.6598726146251</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>25.12721035747808</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>48.58526034766479</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23703,19 +23703,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>103.0576765518774</v>
+        <v>14.7411341369031</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>14.74113413690324</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>139.5191217238289</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24183,7 +24183,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>79.43092547709136</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>46.0713830129512</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>124.4198406026821</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,16 +25317,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>44.17985890344634</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>82.39383318338571</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25554,19 +25554,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>98.75080951313053</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>124.705486540696</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>84.13511704545172</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>14.74113413690318</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>679007.2774849685</v>
+        <v>679007.2774849684</v>
       </c>
     </row>
     <row r="6">
@@ -26316,46 +26316,46 @@
         <v>738937.5928778548</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="E2" t="n">
         <v>703852.307527876</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.307527876</v>
       </c>
       <c r="G2" t="n">
         <v>703852.3075278758</v>
       </c>
       <c r="H2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="I2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>703852.3075278758</v>
       </c>
-      <c r="J2" t="n">
-        <v>703852.3075278759</v>
-      </c>
       <c r="K2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="L2" t="n">
         <v>703852.307527876</v>
-      </c>
-      <c r="L2" t="n">
-        <v>703852.3075278759</v>
       </c>
       <c r="M2" t="n">
         <v>703852.307527876</v>
       </c>
       <c r="N2" t="n">
+        <v>703852.3075278759</v>
+      </c>
+      <c r="O2" t="n">
+        <v>703852.3075278759</v>
+      </c>
+      <c r="P2" t="n">
         <v>703852.3075278761</v>
-      </c>
-      <c r="O2" t="n">
-        <v>703852.307527876</v>
-      </c>
-      <c r="P2" t="n">
-        <v>703852.307527876</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26429,19 +26429,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143916</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143902</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26490,10 +26490,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-90664.3226513218</v>
       </c>
       <c r="C6" t="n">
-        <v>499303.5565632225</v>
+        <v>499303.5565632224</v>
       </c>
       <c r="D6" t="n">
         <v>499303.5565632228</v>
       </c>
       <c r="E6" t="n">
-        <v>70684.68422110261</v>
+        <v>71561.81635485218</v>
       </c>
       <c r="F6" t="n">
-        <v>595844.7206979984</v>
+        <v>596721.8528317482</v>
       </c>
       <c r="G6" t="n">
-        <v>595844.7206979984</v>
+        <v>596721.852831748</v>
       </c>
       <c r="H6" t="n">
-        <v>595844.7206979984</v>
+        <v>596721.8528317482</v>
       </c>
       <c r="I6" t="n">
-        <v>595844.7206979984</v>
+        <v>596721.8528317481</v>
       </c>
       <c r="J6" t="n">
-        <v>419421.5015054055</v>
+        <v>420298.6336391549</v>
       </c>
       <c r="K6" t="n">
-        <v>595844.7206979987</v>
+        <v>596721.852831748</v>
       </c>
       <c r="L6" t="n">
-        <v>595844.7206979985</v>
+        <v>596721.8528317482</v>
       </c>
       <c r="M6" t="n">
-        <v>461043.7054641616</v>
+        <v>461920.8375979111</v>
       </c>
       <c r="N6" t="n">
-        <v>595844.7206979988</v>
+        <v>596721.8528317481</v>
       </c>
       <c r="O6" t="n">
-        <v>595844.7206979987</v>
+        <v>596721.8528317481</v>
       </c>
       <c r="P6" t="n">
-        <v>595844.7206979987</v>
+        <v>596721.8528317483</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26758,16 +26758,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26776,10 +26776,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="P3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>203.2550743222148</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>346.0249463715818</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>56.38259878544065</v>
+        <v>268.5281377354596</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>73.6393129964963</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>73.63931299649627</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>161.4583240119907</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>156.0207865296392</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>273.3694675023654</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>48.1947234108064</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>96.44405126592653</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>14.65885272800552</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -31518,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32168,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>224.1074838346401</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970350042</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>609.7603912467498</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>250.7532875461497</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
